--- a/Studium MW/PVLs S2.xlsx
+++ b/Studium MW/PVLs S2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
@@ -10,16 +10,12 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Fach</t>
   </si>
@@ -33,9 +29,6 @@
     <t>Computational Intelligence</t>
   </si>
   <si>
-    <t>kurzer Beleg zu Python-Skript</t>
-  </si>
-  <si>
     <t>Gentechnik</t>
   </si>
   <si>
@@ -48,33 +41,18 @@
     <t>Gruppe: Rechtlicher Rahmen</t>
   </si>
   <si>
-    <t>21.6/25.6</t>
-  </si>
-  <si>
     <t>Systemische Biologie</t>
   </si>
   <si>
-    <t>Modellieraufgabe</t>
-  </si>
-  <si>
     <t>Nanobiotechnologie</t>
   </si>
   <si>
     <t>Kurzvortrag eigenes Thema</t>
   </si>
   <si>
-    <t>21.6</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
     <t>englisch</t>
   </si>
   <si>
-    <t>Anwendung in Informationstechnik (DANN-Computing)</t>
-  </si>
-  <si>
     <t>Molekularbiologie</t>
   </si>
   <si>
@@ -100,16 +78,51 @@
   </si>
   <si>
     <t>24.05</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>Modellieraufgabe und ppt (20 Minuten)</t>
+  </si>
+  <si>
+    <t>letzte Woche</t>
+  </si>
+  <si>
+    <t>2a) Oszillator Typ 1</t>
+  </si>
+  <si>
+    <t>Python-Skript</t>
+  </si>
+  <si>
+    <t>Anwendung in Informationstechnik (DNA-Computing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,9 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -147,9 +164,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,16 +435,17 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,131 +456,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
